--- a/OutputFiles/TC01_Canine_Filter_Study-COTB_WebData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Study-COTB_WebData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebDataCanine" r:id="rId3" sheetId="1"/>
+    <sheet name="WebData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/OutputFiles/TC01_Canine_Filter_Study-COTB_WebData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Study-COTB_WebData.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>File Name</t>
+  </si>
   <si>
     <t>File Type</t>
   </si>
@@ -111,25 +114,28 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
